--- a/annotation/trans_h_23_1.xlsx
+++ b/annotation/trans_h_23_1.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pei/Google 雲端硬碟/Pei/sonata/code/chordGT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanley\Desktop\SCREAM Lab\YA\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14715" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trans_h_23_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -207,6 +204,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -477,11 +477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A220" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="M227" sqref="M227"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -561,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -581,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -601,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -621,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -641,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -661,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -681,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -701,7 +703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -721,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -741,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -761,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -781,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -801,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -821,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -841,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -861,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -881,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -901,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -921,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -941,7 +943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -961,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -981,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -1001,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>25</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>25</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>26</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>26</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>27</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>27</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>28</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>29</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>29</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>29</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>30</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>31</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>32</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>33</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>33</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>34</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>34</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>35</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>36</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>37</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>38</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>38</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>39</v>
       </c>
@@ -1741,7 +1743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>39</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>40</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>40</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>41</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>41</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>42</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>42</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>42</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>43</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>43</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>44</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>44</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>44</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>45</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>46</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>47</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>47</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>48</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>48</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>49</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>50</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>50</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>51</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>51</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>52</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>53</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>53</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>54</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>55</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>55</v>
       </c>
@@ -2341,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>56</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>56</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>56</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>56</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>57</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>57</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>57</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>57</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>57</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>57</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>58</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>58</v>
       </c>
@@ -2581,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>58</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>58</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>59</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>60</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>61</v>
       </c>
@@ -2681,7 +2683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>62</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>63</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>64</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>65</v>
       </c>
@@ -2761,7 +2763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>66</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>66</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>67</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>67</v>
       </c>
@@ -2841,7 +2843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>68</v>
       </c>
@@ -2861,7 +2863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>68</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>69</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>69</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>70</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>70</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>71</v>
       </c>
@@ -2981,7 +2983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>71</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>72</v>
       </c>
@@ -3021,7 +3023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>72</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>73</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>74</v>
       </c>
@@ -3081,7 +3083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>74</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>74</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>74</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>75</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>75</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>75</v>
       </c>
@@ -3201,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>76</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>76</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>76</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>76</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>77</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>77</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>77</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>78</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>78</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>79</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>79</v>
       </c>
@@ -3421,7 +3423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>80</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>80</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>81</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>81</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>82</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>82</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>83</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>84</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>85</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>86</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>87</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>87</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>88</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>89</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>89</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>90</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>91</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>91</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>92</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>93</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>93</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>94</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>94</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>95</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>96</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>97</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>98</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>98</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>99</v>
       </c>
@@ -4001,7 +4003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>99</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>99</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>100</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>100</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>101</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>101</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>101</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>102</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>102</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>103</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>103</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>104</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>104</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>105</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>106</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>107</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>108</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>109</v>
       </c>
@@ -4361,7 +4363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>110</v>
       </c>
@@ -4381,7 +4383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>111</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>112</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>112</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>113</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>113</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>113</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>114</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>114</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>115</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>115</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>116</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>117</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>118</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>119</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>119</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>120</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>120</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>121</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>121</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>122</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>122</v>
       </c>
@@ -4801,7 +4803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>123</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>123</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>123</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>124</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>124</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>125</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>125</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>125</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>126</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>127</v>
       </c>
@@ -5001,7 +5003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>128</v>
       </c>
